--- a/output/results_SiO4C.xlsx
+++ b/output/results_SiO4C.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="65">
   <si>
     <t>identifier</t>
   </si>
@@ -61,6 +61,9 @@
     <t>CEPPUI</t>
   </si>
   <si>
+    <t>CEPRAQ</t>
+  </si>
+  <si>
     <t>CEPREU</t>
   </si>
   <si>
@@ -97,12 +100,45 @@
     <t>LODGAM</t>
   </si>
   <si>
+    <t>LOWTOJ</t>
+  </si>
+  <si>
     <t>MAPPSI</t>
   </si>
   <si>
+    <t>MOBYIM</t>
+  </si>
+  <si>
+    <t>PIYTEW</t>
+  </si>
+  <si>
+    <t>PIYTIA</t>
+  </si>
+  <si>
+    <t>PIYTOG</t>
+  </si>
+  <si>
     <t>SOLDEC</t>
   </si>
   <si>
+    <t>TICSON</t>
+  </si>
+  <si>
+    <t>WAFVUV</t>
+  </si>
+  <si>
+    <t>WAFWAC</t>
+  </si>
+  <si>
+    <t>WAFWEG</t>
+  </si>
+  <si>
+    <t>WAFWIK</t>
+  </si>
+  <si>
+    <t>WAFWOQ</t>
+  </si>
+  <si>
     <t>WOPRUR</t>
   </si>
   <si>
@@ -136,6 +172,9 @@
     <t>orthorhombic</t>
   </si>
   <si>
+    <t>tetragonal</t>
+  </si>
+  <si>
     <t>triclinic</t>
   </si>
   <si>
@@ -158,6 +197,9 @@
   </si>
   <si>
     <t>C2</t>
+  </si>
+  <si>
+    <t>P-421c</t>
   </si>
   <si>
     <t>Pnn2</t>
@@ -524,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,10 +642,10 @@
         <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M2">
         <v>2518.930622650423</v>
@@ -641,10 +683,10 @@
         <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M3">
         <v>2243.021267024979</v>
@@ -682,10 +724,10 @@
         <v>90</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M4">
         <v>2062.053748310455</v>
@@ -699,37 +741,37 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>3.818705301053504</v>
+        <v>-10.26118261308627</v>
       </c>
       <c r="D5">
-        <v>3.846057741958008</v>
+        <v>-34.97687935108356</v>
       </c>
       <c r="E5">
-        <v>8.502000000000001</v>
+        <v>10.266</v>
       </c>
       <c r="F5">
-        <v>21.141</v>
+        <v>12.344</v>
       </c>
       <c r="G5">
-        <v>17.406</v>
+        <v>12.525</v>
       </c>
       <c r="H5">
         <v>90</v>
       </c>
       <c r="I5">
-        <v>90.29000000000001</v>
+        <v>105.48</v>
       </c>
       <c r="J5">
         <v>90</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>3128.527977240984</v>
+        <v>1529.633678543501</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -740,37 +782,37 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>25.53228526417548</v>
+        <v>3.818705301053504</v>
       </c>
       <c r="D6">
-        <v>28.44368056646855</v>
+        <v>3.846057741958008</v>
       </c>
       <c r="E6">
-        <v>22.367</v>
+        <v>8.502000000000001</v>
       </c>
       <c r="F6">
-        <v>11.193</v>
+        <v>21.141</v>
       </c>
       <c r="G6">
-        <v>10.793</v>
+        <v>17.406</v>
       </c>
       <c r="H6">
         <v>90</v>
       </c>
       <c r="I6">
-        <v>90</v>
+        <v>90.29000000000001</v>
       </c>
       <c r="J6">
         <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>2702.068897983001</v>
+        <v>3128.527977240984</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -781,19 +823,19 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>-26.17919103590017</v>
+        <v>25.53228526417548</v>
       </c>
       <c r="D7">
-        <v>-29.68191757357753</v>
+        <v>28.44368056646855</v>
       </c>
       <c r="E7">
-        <v>11.849</v>
+        <v>22.367</v>
       </c>
       <c r="F7">
-        <v>17.04</v>
+        <v>11.193</v>
       </c>
       <c r="G7">
-        <v>19.857</v>
+        <v>10.793</v>
       </c>
       <c r="H7">
         <v>90</v>
@@ -805,13 +847,13 @@
         <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>4009.26650472</v>
+        <v>2702.068897983001</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -822,37 +864,37 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>15.00405303954673</v>
+        <v>-26.17919103590017</v>
       </c>
       <c r="D8">
-        <v>15.58999415749087</v>
+        <v>-29.68191757357753</v>
       </c>
       <c r="E8">
-        <v>10.492</v>
+        <v>11.849</v>
       </c>
       <c r="F8">
-        <v>21.104</v>
+        <v>17.04</v>
       </c>
       <c r="G8">
-        <v>10.598</v>
+        <v>19.857</v>
       </c>
       <c r="H8">
         <v>90</v>
       </c>
       <c r="I8">
-        <v>98.92</v>
+        <v>90</v>
       </c>
       <c r="J8">
         <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="M8">
-        <v>2318.261971349647</v>
+        <v>4009.26650472</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -863,37 +905,37 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>-178.0142790986201</v>
+        <v>15.00405303954673</v>
       </c>
       <c r="D9">
-        <v>-178.4402625904079</v>
+        <v>15.58999415749087</v>
       </c>
       <c r="E9">
-        <v>13.119</v>
+        <v>10.492</v>
       </c>
       <c r="F9">
-        <v>10.1829</v>
+        <v>21.104</v>
       </c>
       <c r="G9">
-        <v>13.713</v>
+        <v>10.598</v>
       </c>
       <c r="H9">
         <v>90</v>
       </c>
       <c r="I9">
-        <v>93.72200000000001</v>
+        <v>98.92</v>
       </c>
       <c r="J9">
         <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M9">
-        <v>1828.04840328371</v>
+        <v>2318.261971349647</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -904,37 +946,37 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>174.8704179462338</v>
+        <v>-178.0142790986201</v>
       </c>
       <c r="D10">
-        <v>176.089464742737</v>
+        <v>-178.4402625904079</v>
       </c>
       <c r="E10">
-        <v>24.2277</v>
+        <v>13.119</v>
       </c>
       <c r="F10">
-        <v>10.3105</v>
+        <v>10.1829</v>
       </c>
       <c r="G10">
-        <v>26.2521</v>
+        <v>13.713</v>
       </c>
       <c r="H10">
         <v>90</v>
       </c>
       <c r="I10">
-        <v>90</v>
+        <v>93.72200000000001</v>
       </c>
       <c r="J10">
         <v>90</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M10">
-        <v>6557.766726684287</v>
+        <v>1828.04840328371</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -945,19 +987,19 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>-5.689149817421457</v>
+        <v>174.8704179462338</v>
       </c>
       <c r="D11">
-        <v>-7.123104141732661</v>
+        <v>176.089464742737</v>
       </c>
       <c r="E11">
-        <v>20.643</v>
+        <v>24.2277</v>
       </c>
       <c r="F11">
-        <v>9.9068</v>
+        <v>10.3105</v>
       </c>
       <c r="G11">
-        <v>32.6779</v>
+        <v>26.2521</v>
       </c>
       <c r="H11">
         <v>90</v>
@@ -969,13 +1011,13 @@
         <v>90</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="M11">
-        <v>6682.828983279961</v>
+        <v>6557.766726684287</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -983,13 +1025,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>170.1245907041794</v>
+        <v>-5.689149817421457</v>
       </c>
       <c r="D12">
-        <v>172.2745211270592</v>
+        <v>-7.123104141732661</v>
       </c>
       <c r="E12">
         <v>20.643</v>
@@ -1010,10 +1052,10 @@
         <v>90</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M12">
         <v>6682.828983279961</v>
@@ -1027,37 +1069,37 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>4.539073866683443</v>
+        <v>170.1245907041794</v>
       </c>
       <c r="D13">
-        <v>1.529360475018376</v>
+        <v>172.2745211270592</v>
       </c>
       <c r="E13">
-        <v>25.448</v>
+        <v>20.643</v>
       </c>
       <c r="F13">
-        <v>8.353</v>
+        <v>9.9068</v>
       </c>
       <c r="G13">
-        <v>12.034</v>
+        <v>32.6779</v>
       </c>
       <c r="H13">
         <v>90</v>
       </c>
       <c r="I13">
-        <v>99.11</v>
+        <v>90</v>
       </c>
       <c r="J13">
         <v>90</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="M13">
-        <v>2525.766463206617</v>
+        <v>6682.828983279961</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1068,37 +1110,37 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>-10.69927006662448</v>
+        <v>4.539073866683443</v>
       </c>
       <c r="D14">
-        <v>-11.97290393511881</v>
+        <v>1.529360475018376</v>
       </c>
       <c r="E14">
-        <v>10.349</v>
+        <v>25.448</v>
       </c>
       <c r="F14">
-        <v>8.336</v>
+        <v>8.353</v>
       </c>
       <c r="G14">
-        <v>22.771</v>
+        <v>12.034</v>
       </c>
       <c r="H14">
         <v>90</v>
       </c>
       <c r="I14">
-        <v>103.61</v>
+        <v>99.11</v>
       </c>
       <c r="J14">
         <v>90</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="M14">
-        <v>1909.27590145397</v>
+        <v>2525.766463206617</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1109,37 +1151,37 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>-13.82074027706754</v>
+        <v>-10.69927006662448</v>
       </c>
       <c r="D15">
-        <v>-12.26370065394225</v>
+        <v>-11.97290393511881</v>
       </c>
       <c r="E15">
-        <v>14.578</v>
+        <v>10.349</v>
       </c>
       <c r="F15">
-        <v>14.141</v>
+        <v>8.336</v>
       </c>
       <c r="G15">
-        <v>22.896</v>
+        <v>22.771</v>
       </c>
       <c r="H15">
         <v>90</v>
       </c>
       <c r="I15">
-        <v>90</v>
+        <v>103.61</v>
       </c>
       <c r="J15">
         <v>90</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="L15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M15">
-        <v>4719.953114208</v>
+        <v>1909.27590145397</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1150,37 +1192,37 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>-11.89054568197326</v>
+        <v>-13.82074027706754</v>
       </c>
       <c r="D16">
-        <v>-11.88669172369176</v>
+        <v>-12.26370065394225</v>
       </c>
       <c r="E16">
-        <v>9.636000000000001</v>
+        <v>14.578</v>
       </c>
       <c r="F16">
-        <v>14.989</v>
+        <v>14.141</v>
       </c>
       <c r="G16">
-        <v>14.263</v>
+        <v>22.896</v>
       </c>
       <c r="H16">
         <v>90</v>
       </c>
       <c r="I16">
-        <v>104.84</v>
+        <v>90</v>
       </c>
       <c r="J16">
         <v>90</v>
       </c>
       <c r="K16" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="M16">
-        <v>1991.348449942044</v>
+        <v>4719.953114208</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1191,37 +1233,37 @@
         <v>26</v>
       </c>
       <c r="C17">
-        <v>11.71446487441884</v>
+        <v>-11.89054568197326</v>
       </c>
       <c r="D17">
-        <v>11.99832953120711</v>
+        <v>-11.88669172369176</v>
       </c>
       <c r="E17">
-        <v>7.498</v>
+        <v>9.636000000000001</v>
       </c>
       <c r="F17">
-        <v>28.71</v>
+        <v>14.989</v>
       </c>
       <c r="G17">
-        <v>14.555</v>
+        <v>14.263</v>
       </c>
       <c r="H17">
         <v>90</v>
       </c>
       <c r="I17">
-        <v>102.01</v>
+        <v>104.84</v>
       </c>
       <c r="J17">
         <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L17" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M17">
-        <v>3064.637517440678</v>
+        <v>1991.348449942044</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1232,37 +1274,37 @@
         <v>27</v>
       </c>
       <c r="C18">
-        <v>-26.1275196561189</v>
+        <v>11.71446487441884</v>
       </c>
       <c r="D18">
-        <v>-25.65067262249959</v>
+        <v>11.99832953120711</v>
       </c>
       <c r="E18">
-        <v>9.166</v>
+        <v>7.498</v>
       </c>
       <c r="F18">
-        <v>12.912</v>
+        <v>28.71</v>
       </c>
       <c r="G18">
-        <v>8.664</v>
+        <v>14.555</v>
       </c>
       <c r="H18">
         <v>90</v>
       </c>
       <c r="I18">
-        <v>90</v>
+        <v>102.01</v>
       </c>
       <c r="J18">
         <v>90</v>
       </c>
       <c r="K18" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="L18" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M18">
-        <v>1025.396460288</v>
+        <v>3064.637517440678</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1273,37 +1315,37 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>24.01480705695079</v>
+        <v>-14.62965396005107</v>
       </c>
       <c r="D19">
-        <v>27.98198999961973</v>
+        <v>-14.17673028743577</v>
       </c>
       <c r="E19">
-        <v>9.798</v>
+        <v>12.2643</v>
       </c>
       <c r="F19">
-        <v>20.919</v>
+        <v>12.2643</v>
       </c>
       <c r="G19">
-        <v>18.3</v>
+        <v>16.3182</v>
       </c>
       <c r="H19">
         <v>90</v>
       </c>
       <c r="I19">
-        <v>101.12</v>
+        <v>90</v>
       </c>
       <c r="J19">
         <v>90</v>
       </c>
       <c r="K19" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L19" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="M19">
-        <v>3680.427162155461</v>
+        <v>2454.470305778718</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1314,37 +1356,37 @@
         <v>29</v>
       </c>
       <c r="C20">
-        <v>174.0253779368481</v>
+        <v>-26.1275196561189</v>
       </c>
       <c r="D20">
-        <v>175.1102509361229</v>
+        <v>-25.65067262249959</v>
       </c>
       <c r="E20">
-        <v>16.3173</v>
+        <v>9.166</v>
       </c>
       <c r="F20">
-        <v>17.8374</v>
+        <v>12.912</v>
       </c>
       <c r="G20">
-        <v>21.3223</v>
+        <v>8.664</v>
       </c>
       <c r="H20">
-        <v>89.65990000000001</v>
+        <v>90</v>
       </c>
       <c r="I20">
-        <v>81.8824</v>
+        <v>90</v>
       </c>
       <c r="J20">
-        <v>84.0998</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="L20" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="M20">
-        <v>6111.068783226709</v>
+        <v>1025.396460288</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1352,40 +1394,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>168.6912008588001</v>
+        <v>-32.38982797669958</v>
       </c>
       <c r="D21">
-        <v>171.1038092651634</v>
+        <v>-40.29632778185729</v>
       </c>
       <c r="E21">
-        <v>16.3173</v>
+        <v>8.4444</v>
       </c>
       <c r="F21">
-        <v>17.8374</v>
+        <v>15.9973</v>
       </c>
       <c r="G21">
-        <v>21.3223</v>
+        <v>11.3019</v>
       </c>
       <c r="H21">
-        <v>89.65990000000001</v>
+        <v>90</v>
       </c>
       <c r="I21">
-        <v>81.8824</v>
+        <v>101.936</v>
       </c>
       <c r="J21">
-        <v>84.0998</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L21" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M21">
-        <v>6111.068783226709</v>
+        <v>1493.737111913731</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1396,37 +1438,37 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>158.4597322463534</v>
+        <v>-32.29821910115583</v>
       </c>
       <c r="D22">
-        <v>165.516313223176</v>
+        <v>-41.68936390903266</v>
       </c>
       <c r="E22">
-        <v>16.0349</v>
+        <v>8.4444</v>
       </c>
       <c r="F22">
-        <v>19.6695</v>
+        <v>15.9973</v>
       </c>
       <c r="G22">
-        <v>17.5883</v>
+        <v>11.3019</v>
       </c>
       <c r="H22">
         <v>90</v>
       </c>
       <c r="I22">
-        <v>93.404</v>
+        <v>101.936</v>
       </c>
       <c r="J22">
         <v>90</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L22" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M22">
-        <v>5537.535607445749</v>
+        <v>1493.737111913731</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1437,37 +1479,37 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>159.8793003140109</v>
+        <v>-17.75493194671254</v>
       </c>
       <c r="D23">
-        <v>166.579170567358</v>
+        <v>-9.610671630860619</v>
       </c>
       <c r="E23">
-        <v>16.104</v>
+        <v>7.734</v>
       </c>
       <c r="F23">
-        <v>19.806</v>
+        <v>8.265000000000001</v>
       </c>
       <c r="G23">
-        <v>17.777</v>
+        <v>11.144</v>
       </c>
       <c r="H23">
-        <v>90</v>
+        <v>106.41</v>
       </c>
       <c r="I23">
-        <v>94.068</v>
+        <v>91.66</v>
       </c>
       <c r="J23">
-        <v>90</v>
+        <v>103.56</v>
       </c>
       <c r="K23" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="L23" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M23">
-        <v>5655.792257455587</v>
+        <v>660.8050593546022</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1478,37 +1520,37 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <v>158.960257877011</v>
+        <v>-22.99861091288591</v>
       </c>
       <c r="D24">
-        <v>166.6950051799013</v>
+        <v>-18.76646440440248</v>
       </c>
       <c r="E24">
-        <v>15.9942</v>
+        <v>9.372</v>
       </c>
       <c r="F24">
-        <v>19.485</v>
+        <v>10.188</v>
       </c>
       <c r="G24">
-        <v>17.562</v>
+        <v>10.956</v>
       </c>
       <c r="H24">
-        <v>90</v>
+        <v>63.70000000000001</v>
       </c>
       <c r="I24">
-        <v>92.07770000000001</v>
+        <v>67.78</v>
       </c>
       <c r="J24">
-        <v>90</v>
+        <v>84.88</v>
       </c>
       <c r="K24" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="L24" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M24">
-        <v>5469.546231810621</v>
+        <v>864.2973873937266</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1519,37 +1561,37 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <v>141.2693189303249</v>
+        <v>-30.04641945924777</v>
       </c>
       <c r="D25">
-        <v>148.8401427201464</v>
+        <v>-39.48857476099117</v>
       </c>
       <c r="E25">
-        <v>8.1952</v>
+        <v>8.813000000000001</v>
       </c>
       <c r="F25">
-        <v>16.135</v>
+        <v>12.542</v>
       </c>
       <c r="G25">
-        <v>15.308</v>
+        <v>14.941</v>
       </c>
       <c r="H25">
-        <v>90</v>
+        <v>84.95</v>
       </c>
       <c r="I25">
-        <v>105.152</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="J25">
-        <v>90</v>
+        <v>71.11</v>
       </c>
       <c r="K25" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="L25" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M25">
-        <v>1953.801345886716</v>
+        <v>1540.076701555027</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1560,37 +1602,37 @@
         <v>34</v>
       </c>
       <c r="C26">
-        <v>-177.3098653742842</v>
+        <v>24.01480705695079</v>
       </c>
       <c r="D26">
-        <v>-178.5645199356024</v>
+        <v>27.98198999961973</v>
       </c>
       <c r="E26">
-        <v>11.1082</v>
+        <v>9.798</v>
       </c>
       <c r="F26">
-        <v>19.477</v>
+        <v>20.919</v>
       </c>
       <c r="G26">
-        <v>11.6299</v>
+        <v>18.3</v>
       </c>
       <c r="H26">
         <v>90</v>
       </c>
       <c r="I26">
-        <v>104.598</v>
+        <v>101.12</v>
       </c>
       <c r="J26">
         <v>90</v>
       </c>
       <c r="K26" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M26">
-        <v>2434.952762347637</v>
+        <v>3680.427162155461</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1601,37 +1643,37 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>159.5656719719389</v>
+        <v>-32.89409095621921</v>
       </c>
       <c r="D27">
-        <v>175.3917240379897</v>
+        <v>-42.22670613473504</v>
       </c>
       <c r="E27">
-        <v>43.04</v>
+        <v>9.625</v>
       </c>
       <c r="F27">
-        <v>9.038</v>
+        <v>20.989</v>
       </c>
       <c r="G27">
-        <v>20.98</v>
+        <v>17.653</v>
       </c>
       <c r="H27">
         <v>90</v>
       </c>
       <c r="I27">
-        <v>114.772</v>
+        <v>90</v>
       </c>
       <c r="J27">
         <v>90</v>
       </c>
       <c r="K27" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="L27" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M27">
-        <v>7410.158398011824</v>
+        <v>3566.243613625</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1642,37 +1684,37 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>-157.6888088837133</v>
+        <v>137.0099890427874</v>
       </c>
       <c r="D28">
-        <v>-168.8831226047839</v>
+        <v>139.0265606402111</v>
       </c>
       <c r="E28">
-        <v>43.04</v>
+        <v>9.625</v>
       </c>
       <c r="F28">
-        <v>9.038</v>
+        <v>20.989</v>
       </c>
       <c r="G28">
-        <v>20.98</v>
+        <v>17.653</v>
       </c>
       <c r="H28">
         <v>90</v>
       </c>
       <c r="I28">
-        <v>114.772</v>
+        <v>90</v>
       </c>
       <c r="J28">
         <v>90</v>
       </c>
       <c r="K28" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="L28" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M28">
-        <v>7410.158398011824</v>
+        <v>3566.243613625</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1683,37 +1725,37 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>176.3622348291378</v>
+        <v>21.19125194524311</v>
       </c>
       <c r="D29">
-        <v>177.7601324927572</v>
+        <v>16.07845575121275</v>
       </c>
       <c r="E29">
-        <v>19.998</v>
+        <v>22.3252</v>
       </c>
       <c r="F29">
-        <v>34.746</v>
+        <v>14.5353</v>
       </c>
       <c r="G29">
-        <v>24.908</v>
+        <v>12.1113</v>
       </c>
       <c r="H29">
         <v>90</v>
       </c>
       <c r="I29">
-        <v>101.563</v>
+        <v>105.6949</v>
       </c>
       <c r="J29">
         <v>90</v>
       </c>
       <c r="K29" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L29" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M29">
-        <v>16956.0822564207</v>
+        <v>3783.626273036381</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1724,37 +1766,37 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>-174.8225995502977</v>
+        <v>19.95893681500853</v>
       </c>
       <c r="D30">
-        <v>-176.4764843402988</v>
+        <v>18.72273326050311</v>
       </c>
       <c r="E30">
-        <v>19.998</v>
+        <v>22.3252</v>
       </c>
       <c r="F30">
-        <v>34.746</v>
+        <v>14.5353</v>
       </c>
       <c r="G30">
-        <v>24.908</v>
+        <v>12.1113</v>
       </c>
       <c r="H30">
         <v>90</v>
       </c>
       <c r="I30">
-        <v>101.563</v>
+        <v>105.6949</v>
       </c>
       <c r="J30">
         <v>90</v>
       </c>
       <c r="K30" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L30" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M30">
-        <v>16956.0822564207</v>
+        <v>3783.626273036381</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1762,40 +1804,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31">
-        <v>-173.6130116364656</v>
+        <v>-14.29232339200498</v>
       </c>
       <c r="D31">
-        <v>-175.9227824512471</v>
+        <v>-30.26655358212595</v>
       </c>
       <c r="E31">
-        <v>19.998</v>
+        <v>8.769500000000001</v>
       </c>
       <c r="F31">
-        <v>34.746</v>
+        <v>15.6613</v>
       </c>
       <c r="G31">
-        <v>24.908</v>
+        <v>27.0259</v>
       </c>
       <c r="H31">
         <v>90</v>
       </c>
       <c r="I31">
-        <v>101.563</v>
+        <v>90</v>
       </c>
       <c r="J31">
         <v>90</v>
       </c>
       <c r="K31" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="L31" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M31">
-        <v>16956.0822564207</v>
+        <v>3711.784951302066</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1803,40 +1845,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C32">
-        <v>174.5385519047685</v>
+        <v>4.920552253820287</v>
       </c>
       <c r="D32">
-        <v>176.6439507049956</v>
+        <v>10.57266054263498</v>
       </c>
       <c r="E32">
-        <v>19.998</v>
+        <v>17.2441</v>
       </c>
       <c r="F32">
-        <v>34.746</v>
+        <v>11.7861</v>
       </c>
       <c r="G32">
-        <v>24.908</v>
+        <v>9.7539</v>
       </c>
       <c r="H32">
         <v>90</v>
       </c>
       <c r="I32">
-        <v>101.563</v>
+        <v>123.9622</v>
       </c>
       <c r="J32">
         <v>90</v>
       </c>
       <c r="K32" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L32" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M32">
-        <v>16956.0822564207</v>
+        <v>1644.206226861977</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1844,40 +1886,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C33">
-        <v>172.1039516943275</v>
+        <v>-138.3605378012254</v>
       </c>
       <c r="D33">
-        <v>174.7545186432837</v>
+        <v>-153.936731700712</v>
       </c>
       <c r="E33">
-        <v>19.998</v>
+        <v>9.080100000000002</v>
       </c>
       <c r="F33">
-        <v>34.746</v>
+        <v>20.8165</v>
       </c>
       <c r="G33">
-        <v>24.908</v>
+        <v>9.5547</v>
       </c>
       <c r="H33">
         <v>90</v>
       </c>
       <c r="I33">
-        <v>101.563</v>
+        <v>116.0512</v>
       </c>
       <c r="J33">
         <v>90</v>
       </c>
       <c r="K33" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L33" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M33">
-        <v>16956.0822564207</v>
+        <v>1622.505158776144</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1885,40 +1927,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C34">
-        <v>175.3344316749285</v>
+        <v>-8.278792532127575</v>
       </c>
       <c r="D34">
-        <v>177.0389315191314</v>
+        <v>0.9468200039603545</v>
       </c>
       <c r="E34">
-        <v>19.998</v>
+        <v>9.4039</v>
       </c>
       <c r="F34">
-        <v>34.746</v>
+        <v>25.6896</v>
       </c>
       <c r="G34">
-        <v>24.908</v>
+        <v>30.8247</v>
       </c>
       <c r="H34">
         <v>90</v>
       </c>
       <c r="I34">
-        <v>101.563</v>
+        <v>90</v>
       </c>
       <c r="J34">
         <v>90</v>
       </c>
       <c r="K34" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="L34" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M34">
-        <v>16956.0822564207</v>
+        <v>7446.705912759169</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1926,40 +1968,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>-179.4341279591708</v>
+        <v>-1.76705993004046</v>
       </c>
       <c r="D35">
-        <v>-178.7817544602561</v>
+        <v>9.046994754835627</v>
       </c>
       <c r="E35">
-        <v>15.993</v>
+        <v>9.4039</v>
       </c>
       <c r="F35">
-        <v>21.486</v>
+        <v>25.6896</v>
       </c>
       <c r="G35">
-        <v>27.205</v>
+        <v>30.8247</v>
       </c>
       <c r="H35">
         <v>90</v>
       </c>
       <c r="I35">
-        <v>107.14</v>
+        <v>90</v>
       </c>
       <c r="J35">
         <v>90</v>
       </c>
       <c r="K35" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="L35" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M35">
-        <v>8933.151520582505</v>
+        <v>7446.705912759169</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1967,39 +2009,695 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36">
+        <v>174.0253779368481</v>
+      </c>
+      <c r="D36">
+        <v>175.1102509361229</v>
+      </c>
+      <c r="E36">
+        <v>16.3173</v>
+      </c>
+      <c r="F36">
+        <v>17.8374</v>
+      </c>
+      <c r="G36">
+        <v>21.3223</v>
+      </c>
+      <c r="H36">
+        <v>89.65990000000001</v>
+      </c>
+      <c r="I36">
+        <v>81.8824</v>
+      </c>
+      <c r="J36">
+        <v>84.0998</v>
+      </c>
+      <c r="K36" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" t="s">
+        <v>63</v>
+      </c>
+      <c r="M36">
+        <v>6111.068783226709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>168.6912008588001</v>
+      </c>
+      <c r="D37">
+        <v>171.1038092651634</v>
+      </c>
+      <c r="E37">
+        <v>16.3173</v>
+      </c>
+      <c r="F37">
+        <v>17.8374</v>
+      </c>
+      <c r="G37">
+        <v>21.3223</v>
+      </c>
+      <c r="H37">
+        <v>89.65990000000001</v>
+      </c>
+      <c r="I37">
+        <v>81.8824</v>
+      </c>
+      <c r="J37">
+        <v>84.0998</v>
+      </c>
+      <c r="K37" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" t="s">
+        <v>63</v>
+      </c>
+      <c r="M37">
+        <v>6111.068783226709</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>158.4597322463534</v>
+      </c>
+      <c r="D38">
+        <v>165.516313223176</v>
+      </c>
+      <c r="E38">
+        <v>16.0349</v>
+      </c>
+      <c r="F38">
+        <v>19.6695</v>
+      </c>
+      <c r="G38">
+        <v>17.5883</v>
+      </c>
+      <c r="H38">
+        <v>90</v>
+      </c>
+      <c r="I38">
+        <v>93.404</v>
+      </c>
+      <c r="J38">
+        <v>90</v>
+      </c>
+      <c r="K38" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" t="s">
+        <v>64</v>
+      </c>
+      <c r="M38">
+        <v>5537.535607445749</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="C36">
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>159.8793003140109</v>
+      </c>
+      <c r="D39">
+        <v>166.579170567358</v>
+      </c>
+      <c r="E39">
+        <v>16.104</v>
+      </c>
+      <c r="F39">
+        <v>19.806</v>
+      </c>
+      <c r="G39">
+        <v>17.777</v>
+      </c>
+      <c r="H39">
+        <v>90</v>
+      </c>
+      <c r="I39">
+        <v>94.068</v>
+      </c>
+      <c r="J39">
+        <v>90</v>
+      </c>
+      <c r="K39" t="s">
+        <v>50</v>
+      </c>
+      <c r="L39" t="s">
+        <v>64</v>
+      </c>
+      <c r="M39">
+        <v>5655.792257455587</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>158.960257877011</v>
+      </c>
+      <c r="D40">
+        <v>166.6950051799013</v>
+      </c>
+      <c r="E40">
+        <v>15.9942</v>
+      </c>
+      <c r="F40">
+        <v>19.485</v>
+      </c>
+      <c r="G40">
+        <v>17.562</v>
+      </c>
+      <c r="H40">
+        <v>90</v>
+      </c>
+      <c r="I40">
+        <v>92.07770000000001</v>
+      </c>
+      <c r="J40">
+        <v>90</v>
+      </c>
+      <c r="K40" t="s">
+        <v>50</v>
+      </c>
+      <c r="L40" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40">
+        <v>5469.546231810621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>141.2693189303249</v>
+      </c>
+      <c r="D41">
+        <v>148.8401427201464</v>
+      </c>
+      <c r="E41">
+        <v>8.1952</v>
+      </c>
+      <c r="F41">
+        <v>16.135</v>
+      </c>
+      <c r="G41">
+        <v>15.308</v>
+      </c>
+      <c r="H41">
+        <v>90</v>
+      </c>
+      <c r="I41">
+        <v>105.152</v>
+      </c>
+      <c r="J41">
+        <v>90</v>
+      </c>
+      <c r="K41" t="s">
+        <v>50</v>
+      </c>
+      <c r="L41" t="s">
+        <v>64</v>
+      </c>
+      <c r="M41">
+        <v>1953.801345886716</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>-177.3098653742842</v>
+      </c>
+      <c r="D42">
+        <v>-178.5645199356024</v>
+      </c>
+      <c r="E42">
+        <v>11.1082</v>
+      </c>
+      <c r="F42">
+        <v>19.477</v>
+      </c>
+      <c r="G42">
+        <v>11.6299</v>
+      </c>
+      <c r="H42">
+        <v>90</v>
+      </c>
+      <c r="I42">
+        <v>104.598</v>
+      </c>
+      <c r="J42">
+        <v>90</v>
+      </c>
+      <c r="K42" t="s">
+        <v>50</v>
+      </c>
+      <c r="L42" t="s">
+        <v>64</v>
+      </c>
+      <c r="M42">
+        <v>2434.952762347637</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>159.5656719719389</v>
+      </c>
+      <c r="D43">
+        <v>175.3917240379897</v>
+      </c>
+      <c r="E43">
+        <v>43.04</v>
+      </c>
+      <c r="F43">
+        <v>9.038</v>
+      </c>
+      <c r="G43">
+        <v>20.98</v>
+      </c>
+      <c r="H43">
+        <v>90</v>
+      </c>
+      <c r="I43">
+        <v>114.772</v>
+      </c>
+      <c r="J43">
+        <v>90</v>
+      </c>
+      <c r="K43" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" t="s">
+        <v>60</v>
+      </c>
+      <c r="M43">
+        <v>7410.158398011824</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>-157.6888088837133</v>
+      </c>
+      <c r="D44">
+        <v>-168.8831226047839</v>
+      </c>
+      <c r="E44">
+        <v>43.04</v>
+      </c>
+      <c r="F44">
+        <v>9.038</v>
+      </c>
+      <c r="G44">
+        <v>20.98</v>
+      </c>
+      <c r="H44">
+        <v>90</v>
+      </c>
+      <c r="I44">
+        <v>114.772</v>
+      </c>
+      <c r="J44">
+        <v>90</v>
+      </c>
+      <c r="K44" t="s">
+        <v>50</v>
+      </c>
+      <c r="L44" t="s">
+        <v>60</v>
+      </c>
+      <c r="M44">
+        <v>7410.158398011824</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>176.3622348291378</v>
+      </c>
+      <c r="D45">
+        <v>177.7601324927572</v>
+      </c>
+      <c r="E45">
+        <v>19.998</v>
+      </c>
+      <c r="F45">
+        <v>34.746</v>
+      </c>
+      <c r="G45">
+        <v>24.908</v>
+      </c>
+      <c r="H45">
+        <v>90</v>
+      </c>
+      <c r="I45">
+        <v>101.563</v>
+      </c>
+      <c r="J45">
+        <v>90</v>
+      </c>
+      <c r="K45" t="s">
+        <v>50</v>
+      </c>
+      <c r="L45" t="s">
+        <v>64</v>
+      </c>
+      <c r="M45">
+        <v>16956.0822564207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46">
+        <v>-174.8225995502977</v>
+      </c>
+      <c r="D46">
+        <v>-176.4764843402988</v>
+      </c>
+      <c r="E46">
+        <v>19.998</v>
+      </c>
+      <c r="F46">
+        <v>34.746</v>
+      </c>
+      <c r="G46">
+        <v>24.908</v>
+      </c>
+      <c r="H46">
+        <v>90</v>
+      </c>
+      <c r="I46">
+        <v>101.563</v>
+      </c>
+      <c r="J46">
+        <v>90</v>
+      </c>
+      <c r="K46" t="s">
+        <v>50</v>
+      </c>
+      <c r="L46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M46">
+        <v>16956.0822564207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>-173.6130116364656</v>
+      </c>
+      <c r="D47">
+        <v>-175.9227824512471</v>
+      </c>
+      <c r="E47">
+        <v>19.998</v>
+      </c>
+      <c r="F47">
+        <v>34.746</v>
+      </c>
+      <c r="G47">
+        <v>24.908</v>
+      </c>
+      <c r="H47">
+        <v>90</v>
+      </c>
+      <c r="I47">
+        <v>101.563</v>
+      </c>
+      <c r="J47">
+        <v>90</v>
+      </c>
+      <c r="K47" t="s">
+        <v>50</v>
+      </c>
+      <c r="L47" t="s">
+        <v>64</v>
+      </c>
+      <c r="M47">
+        <v>16956.0822564207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>174.5385519047685</v>
+      </c>
+      <c r="D48">
+        <v>176.6439507049956</v>
+      </c>
+      <c r="E48">
+        <v>19.998</v>
+      </c>
+      <c r="F48">
+        <v>34.746</v>
+      </c>
+      <c r="G48">
+        <v>24.908</v>
+      </c>
+      <c r="H48">
+        <v>90</v>
+      </c>
+      <c r="I48">
+        <v>101.563</v>
+      </c>
+      <c r="J48">
+        <v>90</v>
+      </c>
+      <c r="K48" t="s">
+        <v>50</v>
+      </c>
+      <c r="L48" t="s">
+        <v>64</v>
+      </c>
+      <c r="M48">
+        <v>16956.0822564207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>172.1039516943275</v>
+      </c>
+      <c r="D49">
+        <v>174.7545186432837</v>
+      </c>
+      <c r="E49">
+        <v>19.998</v>
+      </c>
+      <c r="F49">
+        <v>34.746</v>
+      </c>
+      <c r="G49">
+        <v>24.908</v>
+      </c>
+      <c r="H49">
+        <v>90</v>
+      </c>
+      <c r="I49">
+        <v>101.563</v>
+      </c>
+      <c r="J49">
+        <v>90</v>
+      </c>
+      <c r="K49" t="s">
+        <v>50</v>
+      </c>
+      <c r="L49" t="s">
+        <v>64</v>
+      </c>
+      <c r="M49">
+        <v>16956.0822564207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>175.3344316749285</v>
+      </c>
+      <c r="D50">
+        <v>177.0389315191314</v>
+      </c>
+      <c r="E50">
+        <v>19.998</v>
+      </c>
+      <c r="F50">
+        <v>34.746</v>
+      </c>
+      <c r="G50">
+        <v>24.908</v>
+      </c>
+      <c r="H50">
+        <v>90</v>
+      </c>
+      <c r="I50">
+        <v>101.563</v>
+      </c>
+      <c r="J50">
+        <v>90</v>
+      </c>
+      <c r="K50" t="s">
+        <v>50</v>
+      </c>
+      <c r="L50" t="s">
+        <v>64</v>
+      </c>
+      <c r="M50">
+        <v>16956.0822564207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>-179.4341279591708</v>
+      </c>
+      <c r="D51">
+        <v>-178.7817544602561</v>
+      </c>
+      <c r="E51">
+        <v>15.993</v>
+      </c>
+      <c r="F51">
+        <v>21.486</v>
+      </c>
+      <c r="G51">
+        <v>27.205</v>
+      </c>
+      <c r="H51">
+        <v>90</v>
+      </c>
+      <c r="I51">
+        <v>107.14</v>
+      </c>
+      <c r="J51">
+        <v>90</v>
+      </c>
+      <c r="K51" t="s">
+        <v>50</v>
+      </c>
+      <c r="L51" t="s">
+        <v>64</v>
+      </c>
+      <c r="M51">
+        <v>8933.151520582505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52">
         <v>-176.4205760574147</v>
       </c>
-      <c r="D36">
+      <c r="D52">
         <v>-178.4197239240076</v>
       </c>
-      <c r="E36">
+      <c r="E52">
         <v>15.993</v>
       </c>
-      <c r="F36">
+      <c r="F52">
         <v>21.486</v>
       </c>
-      <c r="G36">
+      <c r="G52">
         <v>27.205</v>
       </c>
-      <c r="H36">
-        <v>90</v>
-      </c>
-      <c r="I36">
+      <c r="H52">
+        <v>90</v>
+      </c>
+      <c r="I52">
         <v>107.14</v>
       </c>
-      <c r="J36">
-        <v>90</v>
-      </c>
-      <c r="K36" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" t="s">
-        <v>50</v>
-      </c>
-      <c r="M36">
+      <c r="J52">
+        <v>90</v>
+      </c>
+      <c r="K52" t="s">
+        <v>50</v>
+      </c>
+      <c r="L52" t="s">
+        <v>64</v>
+      </c>
+      <c r="M52">
         <v>8933.151520582505</v>
       </c>
     </row>
